--- a/MainTop/08.04.2025/p1.xlsx
+++ b/MainTop/08.04.2025/p1.xlsx
@@ -555,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>6</v>
@@ -594,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>

--- a/MainTop/08.04.2025/p1.xlsx
+++ b/MainTop/08.04.2025/p1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,105 +441,60 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Беларусь</t>
+          <t>Дальний Восток</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Волгоград</t>
+          <t>Москва, МО и Дальние регионы</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Воронеж</t>
+          <t>Самара</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Дальний Восток</t>
+          <t>Санкт-Петербург и СЗО</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Казань</t>
+          <t>Урал</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Краснодар</t>
+          <t>Num_Copies</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Красноярск</t>
+          <t>осталось</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Москва, МО и Дальние регионы</t>
+          <t>тип упорядочить</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Новосибирск</t>
+          <t>Unnamed: 10</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Ростов</t>
+          <t>Unnamed: 11</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Самара</t>
+          <t>Unnamed: 12</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург и СЗО</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Урал</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Уфа</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Num_Copies</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>осталось</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>тип упорядочить</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 19</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 20</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 21</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Тип упорядочить</t>
         </is>
@@ -555,61 +510,34 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
         <v>15</v>
       </c>
-      <c r="J2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3</v>
-      </c>
-      <c r="L2" t="n">
-        <v>10</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O2" t="n">
-        <v>3</v>
-      </c>
-      <c r="P2" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>30</v>
-      </c>
-      <c r="V2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>1_а4</t>
         </is>
@@ -625,61 +553,34 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>12</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M3" t="n">
-        <v>11</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2</v>
-      </c>
-      <c r="P3" t="n">
-        <v>56</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>28</v>
-      </c>
-      <c r="V3" t="inlineStr">
+        <v>14</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>1_а4</t>
         </is>
@@ -688,68 +589,41 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Термонаклейка Цветы Синий Акварель</t>
+          <t>Термонаклейка Перья Украшение Ожерелье</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>2</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>54</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>27</v>
-      </c>
-      <c r="V4" t="inlineStr">
+        <v>14</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>1_а4</t>
         </is>
@@ -758,68 +632,41 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Термонаклейка Перья Украшение Ожерелье</t>
+          <t>Термонаклейка Цветы Пионы красные Pionies</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>9</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>48</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="n">
-        <v>24</v>
-      </c>
-      <c r="V5" t="inlineStr">
+        <v>12</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>1_а4</t>
         </is>
@@ -828,14 +675,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Термонаклейка Цветы Пионы красные Pionies</t>
+          <t>Термонаклейка Цветы Мак фиолетовый</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
@@ -844,52 +691,25 @@
         <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>14</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>4</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2</v>
-      </c>
-      <c r="O6" t="n">
-        <v>7</v>
-      </c>
-      <c r="P6" t="n">
-        <v>48</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="n">
-        <v>24</v>
-      </c>
-      <c r="V6" t="inlineStr">
+        <v>11</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>1_а4</t>
         </is>
@@ -898,68 +718,557 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Термонаклейка Цветы Мак фиолетовый</t>
+          <t>Термонаклейка Цветы Синий Акварель</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>22</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>11</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Термонаклейка Аист оранжевый круг</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>20</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>10</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Термонаклейка Цветы Пионы розовый Peonies</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="n">
+        <v>20</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>10</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Термонаклейка Ловец снов акварель</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="G7" t="n">
-        <v>5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="D10" t="n">
+        <v>7</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>18</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
         <v>9</v>
       </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Термонаклейка набор Щенячий Патруль Paw Patrol</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
         <v>3</v>
       </c>
-      <c r="L7" t="n">
-        <v>2</v>
-      </c>
-      <c r="M7" t="n">
-        <v>2</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>18</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>9</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Термонаклейка Матрешка с хлебом</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>8</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>16</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>8</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Термонаклейка Чёрная кошка с узорами на фоне луны</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>14</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>7</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Термонаклейка Лотос розовый золотистый</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
         <v>6</v>
       </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>46</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="n">
-        <v>23</v>
-      </c>
-      <c r="V7" t="inlineStr">
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>14</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>7</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Термонаклейка Цветы Магнолия фиолетовая Garden</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>9</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>14</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>7</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Термонаклейка Рука Фатимы</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>8</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>14</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>7</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Термонаклейка Крылья красочные маслом</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>14</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>7</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Термонаклейка Орхидея Цветы Розовые</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>14</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>7</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Термонаклейка Цветы Розовые Spring Blossoms</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" t="n">
+        <v>14</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>7</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>1_а4</t>
         </is>
